--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-26.01802749821643</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.184610660062029</v>
+        <v>-9.275135511209827</v>
       </c>
       <c r="F2" t="n">
-        <v>5.774454765877979</v>
+        <v>5.734052013129793</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.3243571229681</v>
+        <v>-19.29648489481981</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-26.34125621619176</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.675457171486556</v>
+        <v>-9.72705086095311</v>
       </c>
       <c r="F3" t="n">
-        <v>5.782770966558601</v>
+        <v>5.740696173461931</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.08535802227896</v>
+        <v>-18.99182643190801</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-26.57594752377432</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.941331142923126</v>
+        <v>-9.98571354726098</v>
       </c>
       <c r="F4" t="n">
-        <v>5.574528608069226</v>
+        <v>5.533729845764821</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.3266819366711</v>
+        <v>-18.19266936944209</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-26.6515859117011</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.49332935223902</v>
+        <v>-10.47457512189754</v>
       </c>
       <c r="F5" t="n">
-        <v>5.814554400200415</v>
+        <v>5.741009069901414</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.82166219433939</v>
+        <v>-17.66406016897751</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-26.54990341215698</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.13482572126067</v>
+        <v>-11.07099484760623</v>
       </c>
       <c r="F6" t="n">
-        <v>5.766412349581904</v>
+        <v>5.679451584440088</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.48012106362357</v>
+        <v>-17.3519117475456</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-26.25997615886829</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.92240561546573</v>
+        <v>-11.86206549271427</v>
       </c>
       <c r="F7" t="n">
-        <v>5.749515941849846</v>
+        <v>5.679158244028073</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.54396425073297</v>
+        <v>-16.44266402845049</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-25.77751017779322</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.88471372608747</v>
+        <v>-12.78920697694228</v>
       </c>
       <c r="F8" t="n">
-        <v>6.014397444892431</v>
+        <v>5.911474072330138</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.06820521449974</v>
+        <v>-16.01891913627437</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-25.10127578586373</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.34338568332083</v>
+        <v>-13.2752818176647</v>
       </c>
       <c r="F9" t="n">
-        <v>6.163155256832052</v>
+        <v>6.023667001912101</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.82950434322948</v>
+        <v>-15.81907609158235</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-24.25406353513975</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.00008197469171</v>
+        <v>-13.93204166612485</v>
       </c>
       <c r="F10" t="n">
-        <v>6.525357330567446</v>
+        <v>6.390318071896388</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.0632942980397</v>
+        <v>-15.06003333045947</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-23.25447109362458</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.42605136499228</v>
+        <v>-14.33937905125561</v>
       </c>
       <c r="F11" t="n">
-        <v>6.30527868645327</v>
+        <v>6.193574657557996</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.32115772266262</v>
+        <v>-14.38799044653334</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-22.15695362131927</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.56886160914051</v>
+        <v>-15.45016630042555</v>
       </c>
       <c r="F12" t="n">
-        <v>6.711721383327377</v>
+        <v>6.567916135343941</v>
       </c>
       <c r="G12" t="n">
-        <v>-13.79458234905468</v>
+        <v>-13.89859597014829</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-20.99827976290884</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.21285137166428</v>
+        <v>-16.05521512325434</v>
       </c>
       <c r="F13" t="n">
-        <v>6.863182816064402</v>
+        <v>6.704451430116274</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.24238369045723</v>
+        <v>-13.3801705709875</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-19.85260788001859</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.31067297462317</v>
+        <v>-17.18285966810141</v>
       </c>
       <c r="F14" t="n">
-        <v>6.923777167172946</v>
+        <v>6.789798822992008</v>
       </c>
       <c r="G14" t="n">
-        <v>-12.54043964053305</v>
+        <v>-12.72127911553337</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-18.76910495507597</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.48028728985705</v>
+        <v>-17.33855498078518</v>
       </c>
       <c r="F15" t="n">
-        <v>6.920569978668249</v>
+        <v>6.765779132254855</v>
       </c>
       <c r="G15" t="n">
-        <v>-11.88282421587119</v>
+        <v>-12.09943166510985</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-17.7994480290464</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.67372808911906</v>
+        <v>-18.48683113461063</v>
       </c>
       <c r="F16" t="n">
-        <v>6.867025575461797</v>
+        <v>6.734073922722912</v>
       </c>
       <c r="G16" t="n">
-        <v>-11.92043534569837</v>
+        <v>-12.1186796851449</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.98769907750216</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.85889179975538</v>
+        <v>-19.64399550292013</v>
       </c>
       <c r="F17" t="n">
-        <v>7.239787904029727</v>
+        <v>7.104836647482274</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.28288440521832</v>
+        <v>-11.55460073986085</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-16.35593228602729</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.40300404099494</v>
+        <v>-20.23142923400743</v>
       </c>
       <c r="F18" t="n">
-        <v>7.418104651486716</v>
+        <v>7.322690793472004</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.77479925558105</v>
+        <v>-11.01971894358602</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.92939428556762</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.08049816757768</v>
+        <v>-20.88907888171736</v>
       </c>
       <c r="F19" t="n">
-        <v>7.35444000406575</v>
+        <v>7.259769275094809</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.937038594893973</v>
+        <v>-10.23317062982988</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.69955940759725</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.84142808535119</v>
+        <v>-21.63602623985149</v>
       </c>
       <c r="F20" t="n">
-        <v>7.435778411310614</v>
+        <v>7.31886270109521</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.279041827696492</v>
+        <v>-9.571414216351739</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.66646255116202</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.62703282078202</v>
+        <v>-22.40901244855881</v>
       </c>
       <c r="F21" t="n">
-        <v>7.592246187079359</v>
+        <v>7.48066438335576</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.891930263974167</v>
+        <v>-9.132244507510505</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.79413175933512</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.10036202060239</v>
+        <v>-22.84881283928588</v>
       </c>
       <c r="F22" t="n">
-        <v>7.472157511407327</v>
+        <v>7.363235327419329</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.162915783027877</v>
+        <v>-8.413364937799329</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-16.04671815772069</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.65110864416036</v>
+        <v>-23.42083642072866</v>
       </c>
       <c r="F23" t="n">
-        <v>7.463577304355892</v>
+        <v>7.347629617500137</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.58370536149073</v>
+        <v>-7.842485383963405</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-16.37842166724804</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.1284614966322</v>
+        <v>-23.87412558140155</v>
       </c>
       <c r="F24" t="n">
-        <v>7.727216999654281</v>
+        <v>7.61877393833924</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.21506446571161</v>
+        <v>-7.468227019294199</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-16.7339039043724</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.34900459639873</v>
+        <v>-24.1042560236341</v>
       </c>
       <c r="F25" t="n">
-        <v>7.467297838581614</v>
+        <v>7.345243782149082</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.877429651482463</v>
+        <v>-7.125879202445347</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-17.07090370348143</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.53963186314661</v>
+        <v>-24.28741288788934</v>
       </c>
       <c r="F26" t="n">
-        <v>7.572303928069213</v>
+        <v>7.496802995023446</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.331444920612869</v>
+        <v>-6.609761414525736</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-17.33864170604572</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.4999722394422</v>
+        <v>-24.242717587112</v>
       </c>
       <c r="F27" t="n">
-        <v>7.513210502068812</v>
+        <v>7.433055234485742</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.118719342826533</v>
+        <v>-6.395344240363448</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-17.51005377840077</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.37637814584659</v>
+        <v>-24.11345713455764</v>
       </c>
       <c r="F28" t="n">
-        <v>7.304581912036951</v>
+        <v>7.208962715733828</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.004155244914115</v>
+        <v>-6.2716523666305</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-17.5547049899691</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.54059988650626</v>
+        <v>-24.2931525819511</v>
       </c>
       <c r="F29" t="n">
-        <v>6.952280077207059</v>
+        <v>6.877918282761283</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.676068661096053</v>
+        <v>-5.928448973579937</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-17.46790860578347</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53412684141447</v>
+        <v>-24.31170636301104</v>
       </c>
       <c r="F30" t="n">
-        <v>7.162409592347064</v>
+        <v>7.06191116719076</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.996147051666108</v>
+        <v>-6.244097923928567</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-17.2505655923777</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.35470517840556</v>
+        <v>-24.14571480186554</v>
       </c>
       <c r="F31" t="n">
-        <v>7.319239154623962</v>
+        <v>7.24274575318421</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.045232680609934</v>
+        <v>-6.317242355664481</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-16.91139474860452</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.35349270470256</v>
+        <v>-24.10794233481176</v>
       </c>
       <c r="F32" t="n">
-        <v>7.136038289306925</v>
+        <v>7.087280223823182</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.15339706853356</v>
+        <v>-6.389800106576366</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-16.47503902607576</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.14180848537888</v>
+        <v>-23.93650442001652</v>
       </c>
       <c r="F33" t="n">
-        <v>7.238154975736178</v>
+        <v>7.18338343180613</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.311996451296282</v>
+        <v>-6.53316534394178</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-15.9605578335938</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.80457945871968</v>
+        <v>-23.61432375649369</v>
       </c>
       <c r="F34" t="n">
-        <v>7.232464171743088</v>
+        <v>7.204230157086655</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.284574011779756</v>
+        <v>-6.494317295377273</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-15.40176258669047</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.61733538472371</v>
+        <v>-23.46120983943565</v>
       </c>
       <c r="F35" t="n">
-        <v>7.709582351885318</v>
+        <v>7.665537289021281</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.750349695990742</v>
+        <v>-6.965065099571913</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-14.81762009621386</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.18570941347812</v>
+        <v>-23.03944499504063</v>
       </c>
       <c r="F36" t="n">
-        <v>7.729602835005335</v>
+        <v>7.715033594541929</v>
       </c>
       <c r="G36" t="n">
-        <v>-6.931145169929257</v>
+        <v>-7.150255790683785</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-14.24269665149348</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.76267831630457</v>
+        <v>-22.64007180209608</v>
       </c>
       <c r="F37" t="n">
-        <v>7.754561215060936</v>
+        <v>7.731284653367553</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.846037338390002</v>
+        <v>-7.051013840292278</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.69423602054057</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.26686457390326</v>
+        <v>-22.15583033894876</v>
       </c>
       <c r="F38" t="n">
-        <v>7.494994062482688</v>
+        <v>7.477682089166942</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.883487130990571</v>
+        <v>-7.047997323055392</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.1926179248</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.78513117127866</v>
+        <v>-21.70405677040461</v>
       </c>
       <c r="F39" t="n">
-        <v>7.533265208236898</v>
+        <v>7.535719489684089</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.967729608314382</v>
+        <v>-7.106269395902151</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.75456374053039</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.50504485687997</v>
+        <v>-21.39555065908855</v>
       </c>
       <c r="F40" t="n">
-        <v>7.478821227766932</v>
+        <v>7.484937375357443</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.128304149851337</v>
+        <v>-7.239001043332025</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.38635389019284</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.9626486570507</v>
+        <v>-20.88869265017487</v>
       </c>
       <c r="F41" t="n">
-        <v>7.670186734551717</v>
+        <v>7.671853885893336</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.56939523839127</v>
+        <v>-7.704615390316404</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.09914541614674</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.63940707903775</v>
+        <v>-20.55994116142291</v>
       </c>
       <c r="F42" t="n">
-        <v>7.670993420684758</v>
+        <v>7.658477563105456</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.560580359010222</v>
+        <v>-7.689215018685622</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-11.88740748631713</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.21736356125131</v>
+        <v>-20.15581585380372</v>
       </c>
       <c r="F43" t="n">
-        <v>7.50338848727318</v>
+        <v>7.498567926502402</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.802923540396329</v>
+        <v>-7.892147915717527</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.7569802931668</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.32325709642304</v>
+        <v>-19.27716353968177</v>
       </c>
       <c r="F44" t="n">
-        <v>7.731348210456824</v>
+        <v>7.700053677501701</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.867399762957204</v>
+        <v>-7.979788252813845</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.69583652881553</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52549340091419</v>
+        <v>-18.51279176107395</v>
       </c>
       <c r="F45" t="n">
-        <v>7.86504299223948</v>
+        <v>7.834413364218258</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.019511433607528</v>
+        <v>-8.132237264937986</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.69771291735001</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08801528844891</v>
+        <v>-18.09678127776129</v>
       </c>
       <c r="F46" t="n">
-        <v>7.658042441494301</v>
+        <v>7.66767867402899</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.052966907597828</v>
+        <v>-8.163834916318859</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.75052778407813</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.99637085472859</v>
+        <v>-17.98782487072522</v>
       </c>
       <c r="F47" t="n">
-        <v>7.888974680853028</v>
+        <v>7.86247626363435</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.521191984249139</v>
+        <v>-8.621866413652652</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.83595546434211</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.08599377504722</v>
+        <v>-17.10389731819387</v>
       </c>
       <c r="F48" t="n">
-        <v>7.889023570921697</v>
+        <v>7.856995686936538</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.447372869565591</v>
+        <v>-8.57988940069332</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.94528907089839</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.68266537554734</v>
+        <v>-16.68110578235679</v>
       </c>
       <c r="F49" t="n">
-        <v>7.864309641209442</v>
+        <v>7.83708765097446</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.681086953831592</v>
+        <v>-8.835388899558295</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.06038709804109</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.23968224134991</v>
+        <v>-16.2132327141999</v>
       </c>
       <c r="F50" t="n">
-        <v>7.709455237706779</v>
+        <v>7.708462769312795</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.44241777016819</v>
+        <v>-9.539083213940831</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.17630537024732</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.64842530689269</v>
+        <v>-15.64925643806006</v>
       </c>
       <c r="F51" t="n">
-        <v>7.788921155321614</v>
+        <v>7.738921282093675</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.512374569426875</v>
+        <v>-9.630952541977029</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.27989937164972</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.97672465344724</v>
+        <v>-15.01015079339634</v>
       </c>
       <c r="F52" t="n">
-        <v>7.787679347577417</v>
+        <v>7.729769061238811</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.926331669855431</v>
+        <v>-10.00924922631831</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.37078658200383</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.89496090260496</v>
+        <v>-14.93636101275399</v>
       </c>
       <c r="F53" t="n">
-        <v>7.84287134609802</v>
+        <v>7.820176576221801</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.35848565384264</v>
+        <v>-10.46955900085208</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.44915671931816</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.423269520085</v>
+        <v>-14.47134312460738</v>
       </c>
       <c r="F54" t="n">
-        <v>7.934574447900745</v>
+        <v>7.87390187268233</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.46989145331903</v>
+        <v>-10.61802347237969</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.5120241042084</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.95214526236161</v>
+        <v>-14.0143578747431</v>
       </c>
       <c r="F55" t="n">
-        <v>7.876175260875446</v>
+        <v>7.832286646231149</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.06870679239251</v>
+        <v>-11.18435624982938</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.57100730135489</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.76768303327291</v>
+        <v>-13.79566770857913</v>
       </c>
       <c r="F56" t="n">
-        <v>7.775779504863347</v>
+        <v>7.732027782411325</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.45826285954829</v>
+        <v>-11.56537122198867</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.62661440293281</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.52476783808337</v>
+        <v>-13.52588742065589</v>
       </c>
       <c r="F57" t="n">
-        <v>7.833914685517833</v>
+        <v>7.775275937156055</v>
       </c>
       <c r="G57" t="n">
-        <v>-11.99111571797335</v>
+        <v>-12.0832148293323</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.69139402239578</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.0981042088077</v>
+        <v>-13.13881985799537</v>
       </c>
       <c r="F58" t="n">
-        <v>7.59684185353426</v>
+        <v>7.567077579728481</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.39182849879944</v>
+        <v>-12.4462431452282</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.76722638044809</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.97016867711428</v>
+        <v>-13.00938829020067</v>
       </c>
       <c r="F59" t="n">
-        <v>7.822044176844963</v>
+        <v>7.755661241605992</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.30321036032974</v>
+        <v>-12.35937527121686</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.86361663722014</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.4449426694016</v>
+        <v>-12.48790726174805</v>
       </c>
       <c r="F60" t="n">
-        <v>7.704893794299947</v>
+        <v>7.694235759330073</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.49711815068532</v>
+        <v>-12.53620087157944</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.98461690488475</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.18726756248085</v>
+        <v>-12.25705813550606</v>
       </c>
       <c r="F61" t="n">
-        <v>7.459607430779957</v>
+        <v>7.430791624306361</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.60185045578837</v>
+        <v>-12.65140542939142</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.1297769180123</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.09868853606608</v>
+        <v>-12.17108983875823</v>
       </c>
       <c r="F62" t="n">
-        <v>7.568294942438343</v>
+        <v>7.569360745935331</v>
       </c>
       <c r="G62" t="n">
-        <v>-13.0678412563015</v>
+        <v>-13.08849731031422</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.30433275885646</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.01090152876376</v>
+        <v>-12.08649046393313</v>
       </c>
       <c r="F63" t="n">
-        <v>7.668627141361172</v>
+        <v>7.645115907338178</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.95356560979423</v>
+        <v>-12.99017938222056</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.4987020156365</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.30913583665244</v>
+        <v>-12.36094464242113</v>
       </c>
       <c r="F64" t="n">
-        <v>7.457925612417738</v>
+        <v>7.485607169298211</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.31850063836823</v>
+        <v>-13.36045320629323</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.71377540220802</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.22327998706255</v>
+        <v>-12.27610081725269</v>
       </c>
       <c r="F65" t="n">
-        <v>7.71000769548274</v>
+        <v>7.712921543575421</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.48751849476435</v>
+        <v>-13.51121551104828</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.93637062165762</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.1265412081869</v>
+        <v>-12.19196100907309</v>
       </c>
       <c r="F66" t="n">
-        <v>7.456796251831481</v>
+        <v>7.471316602226218</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.69453860153699</v>
+        <v>-13.67538836163929</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.16196089501867</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.31738359123692</v>
+        <v>-12.40188518592468</v>
       </c>
       <c r="F67" t="n">
-        <v>7.242608860991937</v>
+        <v>7.290521128287703</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.73844677220876</v>
+        <v>-13.76383049586178</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.37688376344034</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.27662882999432</v>
+        <v>-12.33575159003592</v>
       </c>
       <c r="F68" t="n">
-        <v>7.40150647317354</v>
+        <v>7.431920984892618</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.80665330700909</v>
+        <v>-13.81861181780556</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.57211142884497</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.70545340030516</v>
+        <v>-12.74574370589541</v>
       </c>
       <c r="F69" t="n">
-        <v>7.503315152170177</v>
+        <v>7.532165181691842</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.51357201235814</v>
+        <v>-13.54667058884715</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.74096898175445</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.5610614714977</v>
+        <v>-12.61396541480459</v>
       </c>
       <c r="F70" t="n">
-        <v>7.540344490180191</v>
+        <v>7.604845157775399</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.50987103415988</v>
+        <v>-13.54489587935446</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.86886628171977</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.86871689561892</v>
+        <v>-12.91544113424603</v>
       </c>
       <c r="F71" t="n">
-        <v>7.386976344765069</v>
+        <v>7.469087215094905</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.48878474754288</v>
+        <v>-13.53111376899663</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.95612768104203</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.95350205270496</v>
+        <v>-12.97613815449878</v>
       </c>
       <c r="F72" t="n">
-        <v>7.455813561451231</v>
+        <v>7.518896417055035</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.73377288164399</v>
+        <v>-13.79603927310101</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.99352366145164</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.28054727806037</v>
+        <v>-13.30613145099494</v>
       </c>
       <c r="F73" t="n">
-        <v>7.470011237392752</v>
+        <v>7.52359475265414</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.71031053768966</v>
+        <v>-13.7595428368395</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.98681785905981</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.52004016844307</v>
+        <v>-13.54514521870467</v>
       </c>
       <c r="F74" t="n">
-        <v>7.435978860592157</v>
+        <v>7.47462645987512</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.6237702271384</v>
+        <v>-13.69920271408803</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.93218878319233</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.00938575475945</v>
+        <v>-14.03324410826999</v>
       </c>
       <c r="F75" t="n">
-        <v>7.428254229742431</v>
+        <v>7.464804445079488</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.74057349019587</v>
+        <v>-13.84023589517793</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.83952252310231</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.20497536347725</v>
+        <v>-14.26700708260467</v>
       </c>
       <c r="F76" t="n">
-        <v>7.537679981437722</v>
+        <v>7.614940956955579</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.81154720288287</v>
+        <v>-13.89455276146935</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.71312609406989</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.62212009638303</v>
+        <v>-14.69413027852582</v>
       </c>
       <c r="F77" t="n">
-        <v>7.575041771914686</v>
+        <v>7.603965136539355</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.45504082214743</v>
+        <v>-13.57613174422718</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.55740675828344</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.12403043034739</v>
+        <v>-15.14022282109061</v>
       </c>
       <c r="F78" t="n">
-        <v>7.551809211283106</v>
+        <v>7.568294942438343</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.35567664658425</v>
+        <v>-13.46903315980054</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.38366048520156</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.22184479073376</v>
+        <v>-15.2621204293034</v>
       </c>
       <c r="F79" t="n">
-        <v>7.720533727267208</v>
+        <v>7.768328658398168</v>
       </c>
       <c r="G79" t="n">
-        <v>-13.313953861982</v>
+        <v>-13.44034935651235</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.1936184924982</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.8029179238872</v>
+        <v>-15.85028751142074</v>
       </c>
       <c r="F80" t="n">
-        <v>7.725163616770176</v>
+        <v>7.775823505925149</v>
       </c>
       <c r="G80" t="n">
-        <v>-13.16983571755908</v>
+        <v>-13.29258401296671</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.99856350254017</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.64494179856223</v>
+        <v>-16.65476870236472</v>
       </c>
       <c r="F81" t="n">
-        <v>7.7177421043462</v>
+        <v>7.722953785666331</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.73075401084145</v>
+        <v>-12.85723750749541</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.79618461055039</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.45288929537486</v>
+        <v>-17.4768063169678</v>
       </c>
       <c r="F82" t="n">
-        <v>7.692436604803047</v>
+        <v>7.711875296105902</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.677356277841</v>
+        <v>-12.82050639890427</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.5957421368711</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.1967028001073</v>
+        <v>-18.21376054506596</v>
       </c>
       <c r="F83" t="n">
-        <v>7.859870422974284</v>
+        <v>7.906575105573922</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.67481399427021</v>
+        <v>-12.8190250298236</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.39264626084232</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.3748507858896</v>
+        <v>-19.39083294933754</v>
       </c>
       <c r="F84" t="n">
-        <v>7.550855854944057</v>
+        <v>7.582468173345529</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.40091227355816</v>
+        <v>-12.5197151404242</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.18951992840154</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.37177795413595</v>
+        <v>-20.40314093318721</v>
       </c>
       <c r="F85" t="n">
-        <v>8.075754299196648</v>
+        <v>8.090440875824859</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.52383657321301</v>
+        <v>-12.65766824718794</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.98480191321956</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.48390479118743</v>
+        <v>-21.48194918844067</v>
       </c>
       <c r="F86" t="n">
-        <v>7.999510237107109</v>
+        <v>8.01044205646153</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.9801741206052</v>
+        <v>-12.16183005975229</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.77306995056501</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.46077236425884</v>
+        <v>-22.46892233870599</v>
       </c>
       <c r="F87" t="n">
-        <v>8.091022667642022</v>
+        <v>8.125407052937035</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.83295634582866</v>
+        <v>-11.99185884701713</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.5555113565009</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66887040610786</v>
+        <v>-23.6755439004812</v>
       </c>
       <c r="F88" t="n">
-        <v>8.188367683369167</v>
+        <v>8.165174234792522</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.86969234342665</v>
+        <v>-12.02700102837651</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.32373534689747</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.97510548279646</v>
+        <v>-25.00146700782287</v>
       </c>
       <c r="F89" t="n">
-        <v>8.032770150822731</v>
+        <v>8.043623746067283</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.28070390815568</v>
+        <v>-11.42606386032279</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.08190153404701</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.65569670429161</v>
+        <v>-26.68207534084205</v>
       </c>
       <c r="F90" t="n">
-        <v>8.124287470364512</v>
+        <v>8.141824337996136</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.45927488396975</v>
+        <v>-11.58044891916623</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.82190001622437</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.58156940029988</v>
+        <v>-28.56824196758067</v>
       </c>
       <c r="F91" t="n">
-        <v>8.287022952936644</v>
+        <v>8.312313785459194</v>
       </c>
       <c r="G91" t="n">
-        <v>-11.02354703596282</v>
+        <v>-11.15399062817898</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.55223553289293</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.39667675673132</v>
+        <v>-30.42676370499032</v>
       </c>
       <c r="F92" t="n">
-        <v>8.320781545352691</v>
+        <v>8.339824227099324</v>
       </c>
       <c r="G92" t="n">
-        <v>-11.07126374298391</v>
+        <v>-11.15083232974295</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.2756708370078</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.05536278295926</v>
+        <v>-32.06113181106222</v>
       </c>
       <c r="F93" t="n">
-        <v>8.25655466214203</v>
+        <v>8.265134869193465</v>
       </c>
       <c r="G93" t="n">
-        <v>-11.1177826433226</v>
+        <v>-11.21384673925061</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.99791823605071</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.14725392965079</v>
+        <v>-34.13156999562172</v>
       </c>
       <c r="F94" t="n">
-        <v>8.109048435960338</v>
+        <v>8.148224047984927</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.42182273780353</v>
+        <v>-10.52955689312286</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.7316001391709</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.47906086581901</v>
+        <v>-36.45637342945309</v>
       </c>
       <c r="F95" t="n">
-        <v>7.963517368552881</v>
+        <v>7.982975615883202</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.927710369791901</v>
+        <v>-10.04037264403309</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.48590981350868</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.35177050115644</v>
+        <v>-38.34620681134189</v>
       </c>
       <c r="F96" t="n">
-        <v>7.63432098017603</v>
+        <v>7.685264431729284</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.295674229057736</v>
+        <v>-9.404058622290375</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.27418727771712</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.94698490479687</v>
+        <v>-40.95359973108781</v>
       </c>
       <c r="F97" t="n">
-        <v>7.344060642487289</v>
+        <v>7.388579939017417</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.758890609111678</v>
+        <v>-8.857687659878295</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.10784106398519</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.95549403937317</v>
+        <v>-43.0051859051685</v>
       </c>
       <c r="F98" t="n">
-        <v>7.023033784585053</v>
+        <v>7.031384208313743</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.322277850861838</v>
+        <v>-8.44177984570984</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.992435962678513</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.66471274963975</v>
+        <v>-45.71420416615354</v>
       </c>
       <c r="F99" t="n">
-        <v>6.693783617132666</v>
+        <v>6.687838584782497</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.108911813175935</v>
+        <v>-8.18178734953417</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.946517114478986</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.04488296398721</v>
+        <v>-48.11121456465408</v>
       </c>
       <c r="F100" t="n">
-        <v>6.158437365205479</v>
+        <v>6.150189610620993</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.787493834724346</v>
+        <v>-7.83274648228451</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.948078450308243</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.12864735901422</v>
+        <v>-50.2182726328985</v>
       </c>
       <c r="F101" t="n">
-        <v>5.977832562534774</v>
+        <v>5.955880921702326</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.484966978806516</v>
+        <v>-7.51714642200455</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.04111139068614</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.04387057581463</v>
+        <v>-52.16114685028646</v>
       </c>
       <c r="F102" t="n">
-        <v>5.535318772996568</v>
+        <v>5.480175664544634</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.421341443440484</v>
+        <v>-7.45492892061619</v>
       </c>
     </row>
   </sheetData>
